--- a/docs/diseño-pruebas/Diseño_Pruebas_Selenium.xlsx
+++ b/docs/diseño-pruebas/Diseño_Pruebas_Selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d790bf25f03f5cee/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\IdeaProjects\SEM_5\Proyecto Integrador\PFinal\proyecto-t3\docs\diseño-pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F73DC4-65C3-4FFE-BE79-D371F472A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F7E69F-CD95-41B1-A231-34D4F1B1D0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="932" firstSheet="7" activeTab="8" xr2:uid="{406C253A-8EF6-4EC8-85B0-F4FD0F28B6AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="932" firstSheet="5" activeTab="6" xr2:uid="{406C253A-8EF6-4EC8-85B0-F4FD0F28B6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="473">
   <si>
     <t>Integrantes</t>
   </si>
@@ -804,9 +804,6 @@
   </si>
   <si>
     <t>El usuario debe estar logueado previamente, tener el rol de administrador y estar posicionado en una materia.</t>
-  </si>
-  <si>
-    <t>Busqueda de Cursos</t>
   </si>
   <si>
     <t>Materia, Periodo, Cupos</t>
@@ -1473,7 +1470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3977,165 +3974,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4145,6 +3983,165 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="109" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="111" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4484,20 +4481,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1">
-      <c r="B2" s="278" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="279"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1">
+      <c r="C2" s="283"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" thickBot="1">
+    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" thickBot="1">
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" thickBot="1">
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -4529,7 +4526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1">
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -4553,43 +4550,43 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1"/>
-    <row r="2" spans="2:13">
-      <c r="B2" s="278" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="279"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1">
+      <c r="C2" s="283"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1"/>
-    <row r="5" spans="2:13" ht="15" thickBot="1">
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="288" t="s">
+      <c r="E5" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="288"/>
+      <c r="F5" s="292"/>
       <c r="I5" s="179" t="s">
         <v>236</v>
       </c>
@@ -4597,7 +4594,7 @@
         <v>230</v>
       </c>
       <c r="K5" s="181" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L5" s="182" t="s">
         <v>52</v>
@@ -4606,88 +4603,88 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="35.25" customHeight="1" thickBot="1">
+    <row r="6" spans="2:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="209" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I6" s="184">
         <v>1</v>
       </c>
       <c r="J6" s="194" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K6" s="185" t="s">
         <v>218</v>
       </c>
       <c r="L6" s="166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M6" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="29.45" thickBot="1">
+    <row r="7" spans="2:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I7" s="187">
         <v>2</v>
       </c>
       <c r="J7" s="190" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K7" s="189" t="s">
         <v>218</v>
       </c>
       <c r="L7" s="166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M7" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="29.45" thickBot="1">
+    <row r="8" spans="2:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="75"/>
       <c r="E8" s="38" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I8" s="187">
         <v>3</v>
       </c>
       <c r="J8" s="193" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="191" t="s">
         <v>446</v>
       </c>
-      <c r="K8" s="191" t="s">
-        <v>447</v>
-      </c>
       <c r="L8" s="166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M8" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="43.9" thickBot="1">
+    <row r="9" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I9" s="184">
         <v>4</v>
@@ -4699,18 +4696,18 @@
         <v>218</v>
       </c>
       <c r="L9" s="166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M9" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="54" thickBot="1">
+    <row r="10" spans="2:13" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I10" s="187">
         <v>5</v>
@@ -4719,16 +4716,16 @@
         <v>97</v>
       </c>
       <c r="K10" s="189" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L10" s="166" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M10" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="54" thickBot="1">
+    <row r="11" spans="2:13" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I11" s="187">
         <v>6</v>
       </c>
@@ -4736,23 +4733,23 @@
         <v>97</v>
       </c>
       <c r="K11" s="189" t="s">
+        <v>451</v>
+      </c>
+      <c r="L11" s="166" t="s">
         <v>452</v>
-      </c>
-      <c r="L11" s="166" t="s">
-        <v>453</v>
       </c>
       <c r="M11" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1">
-      <c r="E12" s="293" t="s">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1">
+      <c r="F12" s="298"/>
+      <c r="G12" s="299"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="165" t="s">
         <v>29</v>
       </c>
@@ -4763,9 +4760,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1">
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F14" s="168" t="s">
         <v>88</v>
@@ -4774,7 +4771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="27.6" thickBot="1">
+    <row r="15" spans="2:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="169" t="s">
         <v>223</v>
       </c>
@@ -4782,60 +4779,60 @@
         <v>88</v>
       </c>
       <c r="G15" s="170" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1"/>
-    <row r="17" spans="5:13" ht="15" thickBot="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F17" s="172" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="5:13" ht="15" thickBot="1">
+    <row r="18" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F18" s="166" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="5:13" ht="15" thickBot="1">
+    <row r="19" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="168" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" ht="15" thickBot="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="178" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="177" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" s="173"/>
       <c r="F21" s="173"/>
     </row>
-    <row r="22" spans="5:13">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E22" s="173"/>
     </row>
-    <row r="24" spans="5:13" ht="15" thickBot="1"/>
-    <row r="25" spans="5:13" ht="15" thickBot="1">
-      <c r="E25" s="288" t="s">
+    <row r="24" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="288"/>
+      <c r="F25" s="292"/>
       <c r="I25" s="179" t="s">
         <v>236</v>
       </c>
       <c r="J25" s="180" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K25" s="181" t="s">
         <v>161</v>
@@ -4847,104 +4844,104 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="5:13" ht="40.9" thickBot="1">
+    <row r="26" spans="5:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I26" s="184">
         <v>1</v>
       </c>
       <c r="J26" s="194" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="185" t="s">
         <v>459</v>
       </c>
-      <c r="K26" s="185" t="s">
+      <c r="L26" s="166" t="s">
         <v>460</v>
-      </c>
-      <c r="L26" s="166" t="s">
-        <v>461</v>
       </c>
       <c r="M26" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="5:13" ht="27.6" thickBot="1">
+    <row r="27" spans="5:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I27" s="187">
         <v>2</v>
       </c>
       <c r="J27" s="188" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K27" s="189" t="s">
+        <v>462</v>
+      </c>
+      <c r="L27" s="166" t="s">
         <v>463</v>
-      </c>
-      <c r="L27" s="166" t="s">
-        <v>464</v>
       </c>
       <c r="M27" s="206" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="5:13" ht="29.45" thickBot="1">
+    <row r="28" spans="5:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="38" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I28" s="201">
         <v>3</v>
       </c>
       <c r="J28" s="202" t="s">
+        <v>464</v>
+      </c>
+      <c r="K28" s="191" t="s">
+        <v>459</v>
+      </c>
+      <c r="L28" s="168" t="s">
         <v>465</v>
-      </c>
-      <c r="K28" s="191" t="s">
-        <v>460</v>
-      </c>
-      <c r="L28" s="168" t="s">
-        <v>466</v>
       </c>
       <c r="M28" s="206" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="5:13" ht="27.6" thickBot="1">
+    <row r="29" spans="5:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I29" s="203">
         <v>4</v>
       </c>
       <c r="J29" s="204" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K29" s="205" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L29" s="195" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M29" s="206" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="5:13" ht="28.9">
+    <row r="30" spans="5:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E30" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I30" s="208"/>
       <c r="J30" s="173"/>
@@ -4952,26 +4949,26 @@
       <c r="L30" s="173"/>
       <c r="M30" s="173"/>
     </row>
-    <row r="31" spans="5:13" ht="15" thickBot="1">
+    <row r="31" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I31" s="208"/>
       <c r="J31" s="173"/>
       <c r="K31" s="173"/>
       <c r="L31" s="173"/>
       <c r="M31" s="173"/>
     </row>
-    <row r="32" spans="5:13" ht="15" thickBot="1">
-      <c r="E32" s="293" t="s">
+    <row r="32" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="294"/>
-      <c r="G32" s="295"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="299"/>
       <c r="I32" s="208"/>
       <c r="J32" s="173"/>
       <c r="K32" s="173"/>
       <c r="L32" s="173"/>
       <c r="M32" s="173"/>
     </row>
-    <row r="33" spans="5:13" ht="15" thickBot="1">
+    <row r="33" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="165" t="s">
         <v>29</v>
       </c>
@@ -4987,15 +4984,15 @@
       <c r="L33" s="173"/>
       <c r="M33" s="173"/>
     </row>
-    <row r="34" spans="5:13" ht="15" thickBot="1">
+    <row r="34" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="167" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F34" s="168" t="s">
         <v>88</v>
       </c>
       <c r="G34" s="168" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I34" s="208"/>
       <c r="J34" s="173"/>
@@ -5003,43 +5000,43 @@
       <c r="L34" s="173"/>
       <c r="M34" s="173"/>
     </row>
-    <row r="35" spans="5:13" ht="15" thickBot="1">
+    <row r="35" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="169" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F35" s="169" t="s">
         <v>88</v>
       </c>
       <c r="G35" s="170" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="5:13" ht="15" thickBot="1"/>
-    <row r="37" spans="5:13" ht="15" thickBot="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="171" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F37" s="172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="5:13" ht="15" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E38" s="167" t="s">
+        <v>458</v>
+      </c>
+      <c r="F38" s="168" t="s">
         <v>459</v>
       </c>
-      <c r="F38" s="168" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="5:13" ht="15" thickBot="1">
+    </row>
+    <row r="39" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E39" s="178" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F39" s="195" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="40" spans="5:13">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E40" s="173"/>
       <c r="F40" s="173"/>
     </row>
@@ -5063,23 +5060,23 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1"/>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="B2" s="278" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="279"/>
-      <c r="D2" s="282" t="s">
+      <c r="C2" s="283"/>
+      <c r="D2" s="286" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -5089,8 +5086,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" thickBot="1">
-      <c r="A3" s="281" t="s">
+    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="285" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -5099,7 +5096,7 @@
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
@@ -5107,13 +5104,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" thickBot="1">
-      <c r="A4" s="281"/>
+    <row r="4" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="285"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="282"/>
+      <c r="D4" s="286"/>
       <c r="E4" s="15" t="s">
         <v>17</v>
       </c>
@@ -5121,8 +5118,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="D5" s="282"/>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="286"/>
       <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
@@ -5130,8 +5127,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="D6" s="282"/>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="286"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
@@ -5139,21 +5136,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1"/>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
-      <c r="A9" s="282" t="s">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="286" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="282"/>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="286"/>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="282" t="s">
+      <c r="D10" s="286" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -5162,12 +5159,12 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="282"/>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="286"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="282"/>
+      <c r="D11" s="286"/>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
@@ -5178,12 +5175,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="282"/>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="286"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="282"/>
+      <c r="D12" s="286"/>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
@@ -5194,8 +5191,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="D13" s="282"/>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="286"/>
       <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
@@ -5206,8 +5203,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="D14" s="282"/>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="286"/>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
@@ -5218,8 +5215,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
-      <c r="D15" s="282"/>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="286"/>
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
@@ -5230,8 +5227,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
-      <c r="D16" s="282"/>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="286"/>
       <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
@@ -5242,8 +5239,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1"/>
-    <row r="23" spans="2:10" ht="15" thickBot="1">
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>32</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1">
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5276,11 +5273,11 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="280" t="s">
+      <c r="G24" s="284" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1">
+    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -5296,9 +5293,9 @@
       <c r="F25" s="18">
         <v>2</v>
       </c>
-      <c r="G25" s="280"/>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1">
+      <c r="G25" s="284"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
         <v>50</v>
@@ -5312,9 +5309,9 @@
       <c r="F26" s="21">
         <v>999999999</v>
       </c>
-      <c r="G26" s="280"/>
-    </row>
-    <row r="27" spans="2:10" ht="15" thickBot="1">
+      <c r="G26" s="284"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="21">
@@ -5326,10 +5323,10 @@
       <c r="F27" s="21">
         <v>1000000000</v>
       </c>
-      <c r="G27" s="280"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1"/>
-    <row r="31" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
+      <c r="G27" s="284"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
         <v>51</v>
       </c>
@@ -5354,11 +5351,11 @@
       <c r="I31" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="280" t="s">
+      <c r="J31" s="284" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1">
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34">
         <v>1</v>
       </c>
@@ -5383,9 +5380,9 @@
       <c r="I32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="280"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1">
+      <c r="J32" s="284"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34">
         <v>2</v>
       </c>
@@ -5410,9 +5407,9 @@
       <c r="I33" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="280"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1">
+      <c r="J33" s="284"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="34">
         <v>3</v>
       </c>
@@ -5437,9 +5434,9 @@
       <c r="I34" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="280"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1">
+      <c r="J34" s="284"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34">
         <v>4</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15" thickBot="1">
+    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34">
         <v>5</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="27.6" thickBot="1">
+    <row r="37" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34">
         <v>6</v>
       </c>
@@ -5517,7 +5514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="27.6" thickBot="1">
+    <row r="38" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34">
         <v>7</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15" thickBot="1">
+    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="34">
         <v>8</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="27.6" thickBot="1">
+    <row r="40" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="34">
         <v>9</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="27.6" thickBot="1">
+    <row r="41" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="34">
         <v>10</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="27.6" thickBot="1">
+    <row r="42" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="34">
         <v>11</v>
       </c>
@@ -5647,7 +5644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1">
+    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="34">
         <v>12</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="27.6" thickBot="1">
+    <row r="44" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34">
         <v>13</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="27.6" thickBot="1">
+    <row r="45" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="34">
         <v>14</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1">
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="34">
         <v>15</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="27.6" thickBot="1">
+    <row r="47" spans="2:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="34">
         <v>16</v>
       </c>
@@ -5777,7 +5774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" thickBot="1">
+    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="34">
         <v>17</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="67.150000000000006" thickBot="1">
+    <row r="49" spans="2:10" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="34">
         <v>18</v>
       </c>
@@ -5828,11 +5825,11 @@
       <c r="I49" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="280" t="s">
+      <c r="J49" s="284" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="54" thickBot="1">
+    <row r="50" spans="2:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="34">
         <v>19</v>
       </c>
@@ -5857,9 +5854,9 @@
       <c r="I50" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="280"/>
-    </row>
-    <row r="51" spans="2:10" ht="54" thickBot="1">
+      <c r="J50" s="284"/>
+    </row>
+    <row r="51" spans="2:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="34">
         <v>20</v>
       </c>
@@ -5884,9 +5881,9 @@
       <c r="I51" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J51" s="280"/>
-    </row>
-    <row r="52" spans="2:10" ht="54" thickBot="1">
+      <c r="J51" s="284"/>
+    </row>
+    <row r="52" spans="2:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="34">
         <v>21</v>
       </c>
@@ -5911,9 +5908,9 @@
       <c r="I52" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="280"/>
-    </row>
-    <row r="53" spans="2:10" ht="54" thickBot="1">
+      <c r="J52" s="284"/>
+    </row>
+    <row r="53" spans="2:10" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="34">
         <v>22</v>
       </c>
@@ -5956,29 +5953,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C7259-A7D9-4E16-8615-2DA75A3E0CBB}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1"/>
-    <row r="2" spans="1:8" thickBot="1">
-      <c r="B2" s="278" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="279"/>
+      <c r="C2" s="283"/>
       <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="8" t="s">
         <v>73</v>
@@ -6001,7 +5998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -6012,7 +6009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
@@ -6023,7 +6020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -6034,13 +6031,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" thickBot="1"/>
-    <row r="9" spans="1:8" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>79</v>
       </c>
@@ -6050,13 +6047,13 @@
       <c r="D9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="283" t="s">
+      <c r="F9" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="284"/>
-      <c r="H9" s="285"/>
-    </row>
-    <row r="10" spans="1:8" thickBot="1">
+      <c r="G9" s="288"/>
+      <c r="H9" s="289"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
@@ -6096,7 +6093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
@@ -6116,7 +6113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.6" thickBot="1">
+    <row r="13" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
@@ -6134,9 +6131,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45"/>
-    <row r="15" spans="1:8" thickBot="1"/>
-    <row r="16" spans="1:8" thickBot="1">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>51</v>
       </c>
@@ -6156,7 +6152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="27.6" thickBot="1">
+    <row r="17" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34">
         <v>1</v>
       </c>
@@ -6176,7 +6172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="27.6" thickBot="1">
+    <row r="18" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34">
         <v>2</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:7" thickBot="1">
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34">
         <v>3</v>
       </c>
@@ -6216,7 +6212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="27.6" thickBot="1">
+    <row r="20" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34">
         <v>4</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="27.6" thickBot="1">
+    <row r="21" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34">
         <v>5</v>
       </c>
@@ -6256,7 +6252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:7" thickBot="1">
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34">
         <v>6</v>
       </c>
@@ -6276,7 +6272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:7" thickBot="1">
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="34">
         <v>7</v>
       </c>
@@ -6296,37 +6292,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="14.45"/>
-    <row r="25" spans="2:7" ht="14.45"/>
-    <row r="26" spans="2:7" ht="14.45"/>
-    <row r="27" spans="2:7" ht="14.45"/>
-    <row r="28" spans="2:7" ht="14.45"/>
-    <row r="29" spans="2:7" ht="27.6" customHeight="1"/>
-    <row r="30" spans="2:7" ht="30.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="15" customHeight="1"/>
-    <row r="32" spans="2:7" ht="15" customHeight="1"/>
-    <row r="33" ht="14.45"/>
-    <row r="34" ht="14.45"/>
-    <row r="35" ht="14.45"/>
-    <row r="36" ht="14.45"/>
-    <row r="37" ht="14.45"/>
-    <row r="38" ht="14.45"/>
-    <row r="39" ht="14.45"/>
-    <row r="40" ht="14.45"/>
-    <row r="41" ht="14.45"/>
-    <row r="42" ht="14.45"/>
-    <row r="43" ht="14.45"/>
-    <row r="44" ht="14.45"/>
-    <row r="45" ht="14.45"/>
-    <row r="46" ht="14.45"/>
-    <row r="47" ht="14.45"/>
-    <row r="48" ht="67.150000000000006" customHeight="1"/>
-    <row r="49" ht="54" customHeight="1"/>
-    <row r="50" ht="54" customHeight="1"/>
-    <row r="51" ht="54" customHeight="1"/>
-    <row r="52" ht="14.45"/>
-    <row r="53" ht="14.45"/>
-    <row r="54" ht="14.45"/>
+    <row r="29" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="67.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F9:H9"/>
@@ -6338,31 +6311,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070DC74-22AB-4318-8FAA-7A89C8D83757}">
-  <dimension ref="B1:P68"/>
+  <dimension ref="B1:P61"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="27.4" customHeight="1">
+    <row r="1" spans="2:8" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
         <v>99</v>
       </c>
@@ -6373,23 +6346,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="287" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="F3" s="288" t="s">
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="F3" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="288"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="289" t="s">
+      <c r="G3" s="292"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
       <c r="F4" s="38" t="s">
         <v>12</v>
       </c>
@@ -6397,12 +6370,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="28.9">
-      <c r="B5" s="289" t="s">
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="289"/>
-      <c r="D5" s="289"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
       <c r="F5" s="38" t="s">
         <v>15</v>
       </c>
@@ -6410,7 +6383,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="43.15">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F6" s="38" t="s">
         <v>106</v>
       </c>
@@ -6418,7 +6391,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="71.650000000000006" customHeight="1">
+    <row r="7" spans="2:8" ht="71.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="38" t="s">
         <v>19</v>
       </c>
@@ -6426,7 +6399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F8" s="38" t="s">
         <v>21</v>
       </c>
@@ -6434,14 +6407,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="F11" s="286" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="294" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="286"/>
-      <c r="H11" s="286"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="G11" s="294"/>
+      <c r="H11" s="294"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F12" s="44" t="s">
         <v>110</v>
       </c>
@@ -6452,7 +6425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" s="4" t="s">
         <v>113</v>
       </c>
@@ -6463,7 +6436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6474,7 +6447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F15" s="31" t="s">
         <v>115</v>
       </c>
@@ -6485,7 +6458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="4" t="s">
         <v>116</v>
       </c>
@@ -6496,7 +6469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
@@ -6507,7 +6480,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F18" s="4" t="s">
         <v>119</v>
       </c>
@@ -6518,7 +6491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F19" s="40" t="s">
         <v>81</v>
       </c>
@@ -6529,7 +6502,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="290" t="s">
         <v>123</v>
       </c>
@@ -6549,7 +6522,7 @@
       <c r="O22" s="290"/>
       <c r="P22" s="290"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
         <v>113</v>
       </c>
@@ -6593,7 +6566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
@@ -6637,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>132</v>
       </c>
@@ -6665,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>51</v>
       </c>
@@ -6694,7 +6667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="26">
         <v>1</v>
       </c>
@@ -6723,7 +6696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="26">
         <v>2</v>
       </c>
@@ -6752,7 +6725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="26">
         <v>3</v>
       </c>
@@ -6781,7 +6754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="26">
         <v>4</v>
       </c>
@@ -6810,7 +6783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="26">
         <v>5</v>
       </c>
@@ -6839,7 +6812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
         <v>6</v>
       </c>
@@ -6868,10 +6841,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="51" customFormat="1"/>
-    <row r="37" spans="2:10" s="51" customFormat="1"/>
-    <row r="38" spans="2:10" s="51" customFormat="1"/>
-    <row r="40" spans="2:10">
+    <row r="36" spans="2:10" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:10" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="39" t="s">
         <v>99</v>
       </c>
@@ -6882,23 +6855,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="287" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="F41" s="288" t="s">
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="F41" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="288"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="289" t="s">
+      <c r="G41" s="292"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="289"/>
-      <c r="D42" s="289"/>
+      <c r="C42" s="293"/>
+      <c r="D42" s="293"/>
       <c r="F42" s="38" t="s">
         <v>12</v>
       </c>
@@ -6906,12 +6879,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="28.9">
-      <c r="B43" s="289" t="s">
+    <row r="43" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="289"/>
-      <c r="D43" s="289"/>
+      <c r="C43" s="293"/>
+      <c r="D43" s="293"/>
       <c r="F43" s="38" t="s">
         <v>15</v>
       </c>
@@ -6919,7 +6892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="28.9">
+    <row r="44" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F44" s="38" t="s">
         <v>106</v>
       </c>
@@ -6927,7 +6900,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F45" s="38" t="s">
         <v>19</v>
       </c>
@@ -6935,7 +6908,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F46" s="38" t="s">
         <v>21</v>
       </c>
@@ -6943,20 +6916,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15"/>
-    <row r="48" spans="2:10" ht="15"/>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="256" t="s">
         <v>123</v>
       </c>
       <c r="C49" s="256"/>
-      <c r="F49" s="286" t="s">
+      <c r="F49" s="294" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="286"/>
-      <c r="H49" s="286"/>
-    </row>
-    <row r="50" spans="2:8" ht="15">
+      <c r="G49" s="294"/>
+      <c r="H49" s="294"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="45" t="s">
         <v>147</v>
       </c>
@@ -6973,7 +6944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>149</v>
       </c>
@@ -6990,7 +6961,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>150</v>
       </c>
@@ -7007,7 +6978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>92</v>
       </c>
@@ -7015,7 +6986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>87</v>
       </c>
@@ -7023,7 +6994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="46" t="s">
         <v>51</v>
       </c>
@@ -7037,7 +7008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -7051,7 +7022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -7065,7 +7036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="26">
         <v>3</v>
       </c>
@@ -7079,7 +7050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -7093,14 +7064,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" ht="15"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
@@ -7108,6 +7073,11 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7121,24 +7091,24 @@
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="278" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="279"/>
+      <c r="C2" s="283"/>
       <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
@@ -7146,7 +7116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="8" t="s">
         <v>73</v>
@@ -7161,7 +7131,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -7172,7 +7142,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
@@ -7183,7 +7153,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>158</v>
       </c>
@@ -7194,8 +7164,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1"/>
-    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>160</v>
       </c>
@@ -7205,13 +7175,13 @@
       <c r="D9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="283" t="s">
+      <c r="F9" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="284"/>
-      <c r="H9" s="285"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
+      <c r="G9" s="288"/>
+      <c r="H9" s="289"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>162</v>
       </c>
@@ -7231,7 +7201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>164</v>
       </c>
@@ -7251,7 +7221,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>167</v>
       </c>
@@ -7269,7 +7239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.6" thickBot="1">
+    <row r="13" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="21" t="s">
@@ -7285,8 +7255,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1"/>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>51</v>
       </c>
@@ -7306,7 +7276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="40.9" thickBot="1">
+    <row r="17" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34">
         <v>1</v>
       </c>
@@ -7326,7 +7296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27.6" thickBot="1">
+    <row r="18" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34">
         <v>2</v>
       </c>
@@ -7346,7 +7316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.6" thickBot="1">
+    <row r="19" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34">
         <v>3</v>
       </c>
@@ -7366,7 +7336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27.6" thickBot="1">
+    <row r="20" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34">
         <v>4</v>
       </c>
@@ -7386,7 +7356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27.6" thickBot="1">
+    <row r="21" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34">
         <v>5</v>
       </c>
@@ -7406,7 +7376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27.6" thickBot="1">
+    <row r="22" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34">
         <v>6</v>
       </c>
@@ -7426,14 +7396,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="51" customFormat="1"/>
-    <row r="25" spans="1:7" s="51" customFormat="1"/>
-    <row r="26" spans="1:7" ht="15" thickBot="1"/>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
-      <c r="B27" s="278" t="s">
+    <row r="24" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="279"/>
+      <c r="C27" s="283"/>
       <c r="F27" s="13" t="s">
         <v>12</v>
       </c>
@@ -7441,7 +7411,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27.6" thickBot="1">
+    <row r="28" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
@@ -7455,7 +7425,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="41"/>
       <c r="C29" s="41"/>
       <c r="F29" s="15" t="s">
@@ -7465,7 +7435,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
@@ -7476,7 +7446,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.9" thickBot="1">
+    <row r="31" spans="1:7" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>179</v>
       </c>
@@ -7487,8 +7457,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1"/>
-    <row r="34" spans="2:8" ht="27.6" thickBot="1">
+    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="19" t="s">
         <v>181</v>
       </c>
@@ -7498,13 +7468,13 @@
       <c r="D34" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="283" t="s">
+      <c r="F34" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="284"/>
-      <c r="H34" s="285"/>
-    </row>
-    <row r="35" spans="2:8" ht="40.9" thickBot="1">
+      <c r="G34" s="288"/>
+      <c r="H34" s="289"/>
+    </row>
+    <row r="35" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>184</v>
       </c>
@@ -7524,7 +7494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="40.9" thickBot="1">
+    <row r="36" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>165</v>
       </c>
@@ -7544,7 +7514,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="27.6" thickBot="1">
+    <row r="37" spans="2:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="21"/>
@@ -7558,7 +7528,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15" thickBot="1">
+    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="21"/>
@@ -7572,8 +7542,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15" thickBot="1"/>
-    <row r="42" spans="2:8" s="25" customFormat="1" ht="40.15" thickBot="1">
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:8" s="25" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="52" t="s">
         <v>51</v>
       </c>
@@ -7593,7 +7563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="40.9" thickBot="1">
+    <row r="43" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="34">
         <v>1</v>
       </c>
@@ -7613,7 +7583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="40.9" thickBot="1">
+    <row r="44" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34">
         <v>2</v>
       </c>
@@ -7633,7 +7603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="40.9" thickBot="1">
+    <row r="45" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="34">
         <v>3</v>
       </c>
@@ -7653,15 +7623,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15"/>
-    <row r="47" spans="2:8" s="51" customFormat="1"/>
-    <row r="48" spans="2:8" s="51" customFormat="1"/>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
-      <c r="B50" s="291" t="s">
+    <row r="47" spans="2:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="292"/>
+      <c r="C50" s="296"/>
       <c r="F50" s="248" t="s">
         <v>12</v>
       </c>
@@ -7669,7 +7638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.6" thickBot="1">
+    <row r="51" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="210" t="s">
         <v>73</v>
       </c>
@@ -7683,7 +7652,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="27" thickBot="1">
+    <row r="52" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
       <c r="C52" s="41"/>
       <c r="F52" s="249" t="s">
@@ -7693,7 +7662,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="251" t="s">
         <v>24</v>
       </c>
@@ -7704,7 +7673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="27.6" thickBot="1">
+    <row r="54" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="165" t="s">
         <v>198</v>
       </c>
@@ -7715,18 +7684,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1"/>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="F57" s="293" t="s">
+      <c r="F57" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="294"/>
-      <c r="H57" s="295"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+      <c r="G57" s="298"/>
+      <c r="H57" s="299"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="200" t="s">
         <v>201</v>
       </c>
@@ -7740,7 +7709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="200" t="s">
         <v>202</v>
       </c>
@@ -7754,15 +7723,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="200"/>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="254"/>
     </row>
-    <row r="63" spans="1:8" ht="15"/>
-    <row r="64" spans="1:8" ht="15" thickBot="1"/>
-    <row r="65" spans="1:8" s="25" customFormat="1" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:8" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="252" t="s">
         <v>51</v>
       </c>
@@ -7776,7 +7744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="67.150000000000006" thickBot="1">
+    <row r="66" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="187">
         <v>1</v>
       </c>
@@ -7790,7 +7758,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="67.150000000000006" thickBot="1">
+    <row r="67" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="187">
         <v>2</v>
       </c>
@@ -7804,14 +7772,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="51" customFormat="1"/>
-    <row r="70" spans="1:8" s="51" customFormat="1"/>
-    <row r="71" spans="1:8" ht="15" thickBot="1"/>
-    <row r="72" spans="1:8" ht="15" thickBot="1">
-      <c r="B72" s="291" t="s">
+    <row r="69" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="292"/>
+      <c r="C72" s="296"/>
       <c r="F72" s="248" t="s">
         <v>12</v>
       </c>
@@ -7819,7 +7787,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="27.6" thickBot="1">
+    <row r="73" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="210" t="s">
         <v>73</v>
       </c>
@@ -7833,7 +7801,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="40.15" thickBot="1">
+    <row r="74" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
       <c r="C74" s="41"/>
       <c r="F74" s="249" t="s">
@@ -7843,7 +7811,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="251" t="s">
         <v>24</v>
       </c>
@@ -7854,7 +7822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="27.6" thickBot="1">
+    <row r="76" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="195" t="s">
         <v>204</v>
       </c>
@@ -7865,18 +7833,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="79" spans="1:8" ht="15" thickBot="1">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="293" t="s">
+      <c r="F79" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="294"/>
-      <c r="H79" s="295"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1">
+      <c r="G79" s="298"/>
+      <c r="H79" s="299"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="200"/>
       <c r="F80" s="165" t="s">
         <v>29</v>
@@ -7888,7 +7856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" thickBot="1">
+    <row r="81" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="200"/>
       <c r="F81" s="165" t="s">
         <v>97</v>
@@ -7896,16 +7864,14 @@
       <c r="G81" s="166"/>
       <c r="H81" s="165"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="200"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickBot="1">
+    <row r="83" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="254"/>
     </row>
-    <row r="84" spans="2:8" ht="15"/>
-    <row r="85" spans="2:8" ht="15"/>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="87" spans="2:8" s="25" customFormat="1" ht="15" thickBot="1">
+    <row r="86" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="2:8" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="252" t="s">
         <v>51</v>
       </c>
@@ -7919,7 +7885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="54" thickBot="1">
+    <row r="88" spans="2:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="187">
         <v>1</v>
       </c>
@@ -7931,14 +7897,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="2:8" s="51" customFormat="1"/>
-    <row r="95" spans="2:8" s="51" customFormat="1"/>
-    <row r="96" spans="2:8" ht="15" thickBot="1"/>
-    <row r="97" spans="1:8" ht="27.6" thickBot="1">
-      <c r="B97" s="278" t="s">
+    <row r="94" spans="2:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="2:8" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="279"/>
+      <c r="C97" s="283"/>
       <c r="F97" s="13" t="s">
         <v>12</v>
       </c>
@@ -7946,7 +7912,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="27.6" thickBot="1">
+    <row r="98" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="8" t="s">
         <v>209</v>
       </c>
@@ -7960,7 +7926,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="27" thickBot="1">
+    <row r="99" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="41"/>
       <c r="C99" s="41"/>
       <c r="F99" s="15" t="s">
@@ -7970,7 +7936,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="40.9" thickBot="1">
+    <row r="100" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="55" t="s">
         <v>24</v>
       </c>
@@ -7981,7 +7947,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30.4" customHeight="1" thickBot="1">
+    <row r="101" spans="1:8" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="5" t="s">
         <v>212</v>
       </c>
@@ -7992,15 +7958,15 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="25.9" customHeight="1">
+    <row r="102" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="5" t="s">
         <v>214</v>
       </c>
       <c r="F102" s="56"/>
       <c r="G102" s="54"/>
     </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1"/>
-    <row r="105" spans="1:8" ht="27.6" thickBot="1">
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="154" t="s">
         <v>215</v>
       </c>
@@ -8008,13 +7974,13 @@
         <v>216</v>
       </c>
       <c r="D105" s="54"/>
-      <c r="F105" s="283" t="s">
+      <c r="F105" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="G105" s="284"/>
-      <c r="H105" s="285"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1">
+      <c r="G105" s="288"/>
+      <c r="H105" s="289"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="130" t="s">
         <v>217</v>
       </c>
@@ -8032,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1">
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="130" t="s">
         <v>219</v>
       </c>
@@ -8050,7 +8016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="27.6" thickBot="1">
+    <row r="108" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="130"/>
       <c r="C108" s="156" t="s">
         <v>222</v>
@@ -8066,7 +8032,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1">
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="130"/>
       <c r="C109" s="197"/>
       <c r="D109" s="196"/>
@@ -8074,8 +8040,8 @@
       <c r="G109" s="79"/>
       <c r="H109" s="79"/>
     </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1"/>
-    <row r="113" spans="1:8" ht="40.15" thickBot="1">
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="25"/>
       <c r="B113" s="52" t="s">
         <v>51</v>
@@ -8094,7 +8060,7 @@
       </c>
       <c r="H113" s="25"/>
     </row>
-    <row r="114" spans="1:8" ht="40.9" thickBot="1">
+    <row r="114" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="34">
         <v>1</v>
       </c>
@@ -8111,7 +8077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="40.9" thickBot="1">
+    <row r="115" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="34">
         <v>2</v>
       </c>
@@ -8128,7 +8094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="40.9" thickBot="1">
+    <row r="116" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="34">
         <v>3</v>
       </c>
@@ -8145,7 +8111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="40.9" thickBot="1">
+    <row r="117" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="34">
         <v>4</v>
       </c>
@@ -8162,7 +8128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="40.9" thickBot="1">
+    <row r="118" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="187">
         <v>5</v>
       </c>
@@ -8181,16 +8147,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="F105:H105"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B97:C97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8204,27 +8170,27 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1"/>
-    <row r="3" spans="2:7" ht="15" thickBot="1">
-      <c r="B3" s="297" t="s">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="F3" s="288" t="s">
+      <c r="C3" s="302"/>
+      <c r="F3" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="288"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1">
+      <c r="G3" s="292"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -8238,7 +8204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1">
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="38" t="s">
         <v>15</v>
       </c>
@@ -8246,7 +8212,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.45" thickBot="1">
+    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55" t="s">
         <v>24</v>
       </c>
@@ -8257,7 +8223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1">
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="158" t="s">
         <v>227</v>
       </c>
@@ -8268,7 +8234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1">
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="76" t="s">
         <v>231</v>
       </c>
@@ -8279,22 +8245,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="75"/>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1"/>
-    <row r="11" spans="2:7" ht="15" thickBot="1">
-      <c r="B11" s="299" t="s">
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="303" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="300"/>
-      <c r="D11" s="301"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="305"/>
       <c r="F11" s="155" t="s">
         <v>230</v>
       </c>
       <c r="G11" s="54"/>
     </row>
-    <row r="12" spans="2:7" ht="27.6" thickBot="1">
+    <row r="12" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="242" t="s">
         <v>110</v>
       </c>
@@ -8309,7 +8275,7 @@
       </c>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="2:7" ht="27.6" thickBot="1">
+    <row r="13" spans="2:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="80" t="s">
         <v>230</v>
       </c>
@@ -8324,7 +8290,7 @@
       </c>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1">
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -8333,8 +8299,8 @@
       </c>
       <c r="G14" s="54"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1"/>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="85" t="s">
         <v>236</v>
       </c>
@@ -8348,7 +8314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27.6" thickBot="1">
+    <row r="19" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="90">
         <v>1</v>
       </c>
@@ -8362,7 +8328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27.6" thickBot="1">
+    <row r="20" spans="1:10" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34">
         <v>2</v>
       </c>
@@ -8376,7 +8342,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34">
         <v>3</v>
       </c>
@@ -8390,7 +8356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="109"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -8402,13 +8368,13 @@
       <c r="I25" s="109"/>
       <c r="J25" s="109"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="F27" s="288" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="288"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="G27" s="292"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F28" s="38" t="s">
         <v>12</v>
       </c>
@@ -8416,7 +8382,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F29" s="38" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.9">
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F30" s="38" t="s">
         <v>106</v>
       </c>
@@ -8432,7 +8398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F31" s="38" t="s">
         <v>19</v>
       </c>
@@ -8440,7 +8406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F32" s="38" t="s">
         <v>21</v>
       </c>
@@ -8448,18 +8414,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="B35" s="302" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="306" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="302"/>
-      <c r="D35" s="302"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="306"/>
       <c r="F35" s="54"/>
       <c r="G35" s="246" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
         <v>110</v>
       </c>
@@ -8474,7 +8440,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>160</v>
       </c>
@@ -8489,13 +8455,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F38" s="54"/>
       <c r="G38" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="159" t="s">
         <v>236</v>
       </c>
@@ -8509,7 +8475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27">
+    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B42" s="88">
         <v>1</v>
       </c>
@@ -8523,7 +8489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="27">
+    <row r="43" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B43" s="88">
         <v>2</v>
       </c>
@@ -8537,7 +8503,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27">
+    <row r="44" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B44" s="88">
         <v>3</v>
       </c>
@@ -8551,75 +8517,75 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="263"/>
       <c r="H48" s="263"/>
       <c r="I48" s="263"/>
       <c r="J48" s="263"/>
       <c r="K48" s="263"/>
     </row>
-    <row r="52" spans="2:7">
-      <c r="F52" s="303"/>
-      <c r="G52" s="303"/>
-    </row>
-    <row r="53" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="307"/>
+      <c r="G52" s="307"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G53" s="64"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G56" s="259"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G57" s="64"/>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="296"/>
-      <c r="C60" s="296"/>
-      <c r="D60" s="296"/>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="300"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="300"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="260"/>
       <c r="C61" s="260"/>
       <c r="D61" s="260"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="54"/>
       <c r="C66" s="54"/>
       <c r="D66" s="54"/>
       <c r="E66" s="261"/>
       <c r="F66" s="54"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="262"/>
       <c r="C67" s="54"/>
       <c r="D67" s="54"/>
       <c r="E67" s="54"/>
       <c r="F67" s="54"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="262"/>
       <c r="C68" s="54"/>
       <c r="D68" s="54"/>
@@ -8644,40 +8610,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D079FC9C-E2CF-42C3-A203-D6B53237FB9F}">
   <dimension ref="B2:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1"/>
-    <row r="3" spans="2:8" ht="15" thickBot="1">
-      <c r="B3" s="297" t="s">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="301" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="298"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1">
+      <c r="C3" s="302"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="288" t="s">
+      <c r="F4" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="304"/>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="G4" s="308"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F5" s="162" t="s">
         <v>12</v>
       </c>
@@ -8685,7 +8651,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="43.15">
+    <row r="6" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F6" s="38" t="s">
         <v>15</v>
       </c>
@@ -8693,7 +8659,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="43.15">
+    <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="264" t="s">
         <v>24</v>
       </c>
@@ -8704,45 +8670,42 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
-        <v>253</v>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="265" t="s">
+        <v>250</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="265" t="s">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F9" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="302" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="306" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="302"/>
-      <c r="D11" s="302"/>
+      <c r="C11" s="306"/>
+      <c r="D11" s="306"/>
       <c r="F11" s="246" t="s">
         <v>161</v>
       </c>
       <c r="G11" s="246" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="246" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="246" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="77" t="s">
         <v>110</v>
       </c>
@@ -8753,16 +8716,16 @@
         <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>161</v>
       </c>
@@ -8778,9 +8741,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>244</v>
@@ -8791,32 +8754,32 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F19" s="117"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="160" t="s">
         <v>236</v>
       </c>
@@ -8824,238 +8787,238 @@
         <v>161</v>
       </c>
       <c r="D20" s="160" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="160" t="s">
         <v>256</v>
-      </c>
-      <c r="E20" s="160" t="s">
-        <v>257</v>
       </c>
       <c r="F20" s="160" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="160" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="G21" s="144" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E22" s="4">
         <v>35</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="144" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1">
+    </row>
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E23" s="4">
         <v>-1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G23" s="140" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1">
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E24" s="4">
         <v>1000</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G24" s="140" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="2:3" s="175" customFormat="1"/>
-    <row r="45" spans="2:3" ht="15" thickBot="1"/>
-    <row r="46" spans="2:3">
-      <c r="B46" s="291" t="s">
+    <row r="44" spans="2:3" s="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="292"/>
-    </row>
-    <row r="47" spans="2:3" ht="15" thickBot="1">
+      <c r="C46" s="296"/>
+    </row>
+    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="211" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1"/>
-    <row r="49" spans="2:11" ht="15" thickBot="1">
+    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="218" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="27.6" thickBot="1">
+    <row r="50" spans="2:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="178" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="288" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="288"/>
+      <c r="E50" s="292"/>
       <c r="G50" s="179" t="s">
         <v>236</v>
       </c>
       <c r="H50" s="180" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="223" t="s">
         <v>267</v>
-      </c>
-      <c r="I50" s="223" t="s">
-        <v>268</v>
       </c>
       <c r="J50" s="229" t="s">
         <v>52</v>
       </c>
       <c r="K50" s="224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="54" thickBot="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D51" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G51" s="184">
         <v>1</v>
       </c>
       <c r="H51" s="194" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I51" s="213" t="s">
         <v>186</v>
       </c>
       <c r="J51" s="178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K51" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="54" thickBot="1">
+    <row r="52" spans="2:11" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G52" s="201">
         <v>2</v>
       </c>
       <c r="H52" s="202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I52" s="227" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="43.9" thickBot="1">
+    <row r="53" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="38" t="s">
         <v>106</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G53" s="203">
         <v>3</v>
       </c>
       <c r="H53" s="217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I53" s="232" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K53" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="28.9">
+    <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D54" s="38" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="28.9">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D55" s="38" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="15" thickBot="1"/>
-    <row r="57" spans="2:11" ht="15" thickBot="1">
-      <c r="D57" s="293" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="F57" s="295"/>
-    </row>
-    <row r="58" spans="2:11" ht="15" thickBot="1">
+      <c r="E57" s="298"/>
+      <c r="F57" s="299"/>
+    </row>
+    <row r="58" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D58" s="165" t="s">
         <v>29</v>
       </c>
@@ -9066,20 +9029,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15" thickBot="1">
+    <row r="59" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D59" s="167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E59" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="168" t="s">
+    </row>
+    <row r="60" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="233" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="15" thickBot="1">
-      <c r="D60" s="233" t="s">
-        <v>282</v>
       </c>
       <c r="E60" s="234" t="s">
         <v>190</v>
@@ -9088,26 +9051,26 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15" thickBot="1"/>
-    <row r="62" spans="2:11" ht="15" thickBot="1">
+    <row r="61" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D62" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="167" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" s="168" t="s">
         <v>267</v>
       </c>
-      <c r="E62" s="172" t="s">
+    </row>
+    <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="178" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="15" thickBot="1">
-      <c r="D63" s="167" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="168" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="15" thickBot="1">
-      <c r="D64" s="178" t="s">
-        <v>284</v>
       </c>
       <c r="E64" s="195"/>
     </row>
@@ -9132,32 +9095,32 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" thickBot="1"/>
-    <row r="3" spans="2:12" ht="15" thickBot="1">
-      <c r="B3" s="305" t="s">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="305"/>
+      <c r="C3" s="327"/>
       <c r="F3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
@@ -9165,10 +9128,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="276" t="s">
         <v>7</v>
       </c>
@@ -9176,68 +9139,68 @@
         <v>8</v>
       </c>
       <c r="F5" s="74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="74" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="F6" s="74" t="s">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="291" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="F7" s="74" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1">
-      <c r="B7" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="F7" s="74" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="329" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="306" t="s">
+      <c r="C8" s="329"/>
+      <c r="D8" s="329"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="293" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="289" t="s">
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="324" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="325"/>
+      <c r="D11" s="326"/>
+      <c r="F11" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1"/>
-    <row r="11" spans="2:12" ht="15" thickBot="1">
-      <c r="B11" s="307" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="308"/>
-      <c r="D11" s="309"/>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="I11" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="J11" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="L11" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="L11" s="94" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="27.6" thickBot="1">
+    </row>
+    <row r="12" spans="2:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="145" t="s">
         <v>110</v>
       </c>
@@ -9248,155 +9211,155 @@
         <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="108" t="s">
         <v>299</v>
-      </c>
-      <c r="H12" s="108" t="s">
-        <v>300</v>
       </c>
       <c r="I12" s="10">
         <v>10</v>
       </c>
       <c r="J12" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="93" t="s">
         <v>301</v>
-      </c>
-      <c r="K12" s="93" t="s">
-        <v>302</v>
       </c>
       <c r="L12" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="27.6" thickBot="1">
+    <row r="13" spans="2:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="92"/>
       <c r="H13" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13" s="95">
         <v>200</v>
       </c>
       <c r="J13" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="92" t="s">
         <v>305</v>
-      </c>
-      <c r="K13" s="92" t="s">
-        <v>306</v>
       </c>
       <c r="L13" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="27.6" thickBot="1">
+    <row r="14" spans="2:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="169"/>
       <c r="G14" s="169"/>
       <c r="H14" s="169" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I14" s="169"/>
       <c r="J14" s="169" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K14" s="169"/>
       <c r="L14" s="169"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="70" t="s">
+      <c r="D16" s="69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C17" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1">
-      <c r="B18" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="99" t="s">
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="100" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" thickBot="1">
-      <c r="B19" s="100" t="s">
+      <c r="C19" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="288" t="s">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="288"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="C21" s="292"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="28.9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="38" t="s">
         <v>106</v>
       </c>
@@ -9404,245 +9367,245 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="48" customHeight="1">
+    <row r="25" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15" thickBot="1"/>
-    <row r="29" spans="2:11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="148" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="149" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="149" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="149" t="s">
+      <c r="E29" s="149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="E29" s="149" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="149" t="s">
+      <c r="G29" s="149" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29" s="149" t="s">
         <v>320</v>
       </c>
-      <c r="G29" s="149" t="s">
-        <v>295</v>
-      </c>
-      <c r="H29" s="149" t="s">
-        <v>321</v>
-      </c>
       <c r="I29" s="149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J29" s="149" t="s">
         <v>52</v>
       </c>
       <c r="K29" s="150" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="267">
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="143" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="143" t="s">
-        <v>299</v>
-      </c>
       <c r="E30" s="143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F30" s="143">
         <v>10</v>
       </c>
       <c r="G30" s="143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H30" s="143" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="143">
         <v>1</v>
       </c>
       <c r="J30" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="267">
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="143" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="143" t="s">
-        <v>324</v>
-      </c>
       <c r="E31" s="143" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F31" s="143">
         <v>10</v>
       </c>
       <c r="G31" s="143" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" s="143" t="s">
         <v>301</v>
-      </c>
-      <c r="H31" s="143" t="s">
-        <v>302</v>
       </c>
       <c r="I31" s="143">
         <v>16</v>
       </c>
       <c r="J31" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K31" s="152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="267">
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="143" t="s">
         <v>323</v>
       </c>
-      <c r="D32" s="143" t="s">
-        <v>324</v>
-      </c>
       <c r="E32" s="143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F32" s="143">
         <v>200</v>
       </c>
       <c r="G32" s="143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H32" s="143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I32" s="143">
         <v>16</v>
       </c>
       <c r="J32" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K32" s="152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="267">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F33" s="4">
         <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I33" s="4">
         <v>1</v>
       </c>
       <c r="J33" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K33" s="152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="267">
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="I34" s="143">
         <v>16</v>
       </c>
       <c r="J34" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K34" s="152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="267">
         <v>6</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
       </c>
       <c r="J35" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K35" s="152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N35" s="117"/>
       <c r="O35" s="117"/>
@@ -9650,33 +9613,33 @@
       <c r="Q35" s="117"/>
       <c r="R35" s="117"/>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="267">
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F36" s="4">
         <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I36" s="4">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K36" s="153" t="s">
         <v>239</v>
@@ -9687,33 +9650,33 @@
       <c r="Q36" s="117"/>
       <c r="R36" s="117"/>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="267">
         <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F37" s="4">
         <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="I37" s="4">
         <v>1</v>
       </c>
       <c r="J37" s="266" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K37" s="153" t="s">
         <v>239</v>
@@ -9724,33 +9687,33 @@
       <c r="Q37" s="117"/>
       <c r="R37" s="117"/>
     </row>
-    <row r="38" spans="2:18" ht="15">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="267">
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F38" s="4">
         <v>10</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I38" s="4">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K38" s="153" t="s">
         <v>239</v>
@@ -9761,33 +9724,33 @@
       <c r="Q38" s="117"/>
       <c r="R38" s="117"/>
     </row>
-    <row r="39" spans="2:18" ht="15">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="151">
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F39" s="4">
         <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I39" s="4">
         <v>17</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K39" s="153" t="s">
         <v>239</v>
@@ -9800,7 +9763,7 @@
       <c r="Q39" s="117"/>
       <c r="R39" s="117"/>
     </row>
-    <row r="40" spans="2:18" s="119" customFormat="1">
+    <row r="40" spans="2:18" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L40" s="120"/>
       <c r="M40" s="120"/>
       <c r="N40" s="120"/>
@@ -9809,7 +9772,7 @@
       <c r="Q40" s="120"/>
       <c r="R40" s="120"/>
     </row>
-    <row r="41" spans="2:18" s="119" customFormat="1">
+    <row r="41" spans="2:18" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G41" s="120"/>
       <c r="H41" s="120"/>
       <c r="I41" s="120"/>
@@ -9823,7 +9786,7 @@
       <c r="Q41" s="120"/>
       <c r="R41" s="120"/>
     </row>
-    <row r="42" spans="2:18" s="119" customFormat="1">
+    <row r="42" spans="2:18" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G42" s="120"/>
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
@@ -9837,7 +9800,7 @@
       <c r="Q42" s="120"/>
       <c r="R42" s="120"/>
     </row>
-    <row r="43" spans="2:18" s="119" customFormat="1">
+    <row r="43" spans="2:18" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G43" s="120"/>
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
@@ -9851,7 +9814,7 @@
       <c r="Q43" s="120"/>
       <c r="R43" s="120"/>
     </row>
-    <row r="44" spans="2:18" ht="15" thickBot="1">
+    <row r="44" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="117"/>
       <c r="H44" s="117"/>
       <c r="I44" s="117"/>
@@ -9865,14 +9828,14 @@
       <c r="Q44" s="117"/>
       <c r="R44" s="117"/>
     </row>
-    <row r="45" spans="2:18">
-      <c r="B45" s="305" t="s">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B45" s="327" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="305"/>
+      <c r="C45" s="327"/>
       <c r="F45" s="141"/>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="57" t="s">
         <v>9</v>
       </c>
@@ -9881,7 +9844,7 @@
       </c>
       <c r="F46" s="54"/>
     </row>
-    <row r="47" spans="2:18" ht="15" thickBot="1">
+    <row r="47" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="106" t="s">
         <v>7</v>
       </c>
@@ -9890,65 +9853,65 @@
       </c>
       <c r="F47" s="75"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F48" s="75"/>
     </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="287" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="287"/>
-      <c r="D49" s="310"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="328"/>
       <c r="F49" s="75"/>
       <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
         <v>335</v>
       </c>
-      <c r="J49" t="s">
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="293" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="293"/>
+      <c r="D50" s="293"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="329" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="289" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="289"/>
-      <c r="D50" s="289"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="306" t="s">
-        <v>337</v>
-      </c>
-      <c r="C51" s="306"/>
-      <c r="D51" s="306"/>
-    </row>
-    <row r="52" spans="2:15" ht="15" thickBot="1"/>
-    <row r="53" spans="2:15" ht="15" thickBot="1">
-      <c r="B53" s="311" t="s">
+      <c r="C51" s="329"/>
+      <c r="D51" s="329"/>
+    </row>
+    <row r="52" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="311"/>
-      <c r="D53" s="311"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
       <c r="F53" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="H53" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="I53" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="I53" s="105" t="s">
+      <c r="J53" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="J53" s="91" t="s">
+      <c r="K53" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="K53" s="19" t="s">
-        <v>296</v>
-      </c>
       <c r="O53" s="54"/>
     </row>
-    <row r="54" spans="2:15" ht="27.6" thickBot="1">
+    <row r="54" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="59" t="s">
         <v>110</v>
       </c>
@@ -9959,79 +9922,79 @@
         <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="108" t="s">
         <v>299</v>
-      </c>
-      <c r="H54" s="108" t="s">
-        <v>300</v>
       </c>
       <c r="I54" s="10">
         <v>10</v>
       </c>
       <c r="J54" s="124" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" s="126" t="s">
         <v>301</v>
       </c>
-      <c r="K54" s="126" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" ht="27.6" thickBot="1">
+    </row>
+    <row r="55" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="92"/>
       <c r="H55" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I55" s="95">
         <v>200</v>
       </c>
       <c r="J55" s="123" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" ht="27.6" thickBot="1">
+    </row>
+    <row r="56" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>120</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
       <c r="H56" s="114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I56" s="96"/>
       <c r="J56" s="132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K56" s="133"/>
     </row>
-    <row r="57" spans="2:15" ht="15" thickBot="1">
+    <row r="57" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F57" s="111"/>
       <c r="G57" s="112"/>
@@ -10039,15 +10002,15 @@
       <c r="J57" s="125"/>
       <c r="K57" s="127"/>
     </row>
-    <row r="58" spans="2:15" ht="15" thickBot="1">
+    <row r="58" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="10"/>
@@ -10056,15 +10019,15 @@
       <c r="J58" s="113"/>
       <c r="K58" s="128"/>
     </row>
-    <row r="59" spans="2:15" ht="15" thickBot="1">
+    <row r="59" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D59" s="121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -10073,242 +10036,241 @@
       <c r="J59" s="109"/>
       <c r="K59" s="129"/>
     </row>
-    <row r="60" spans="2:15" ht="15" thickBot="1">
+    <row r="60" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="C60" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="288" t="s">
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="288"/>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="C62" s="292"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" ht="28.9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" ht="43.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B65" s="38" t="s">
         <v>106</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L65" s="161"/>
     </row>
-    <row r="66" spans="2:15" ht="28.9">
+    <row r="66" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" ht="15"/>
-    <row r="70" spans="2:15" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="118" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="135" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="135" t="s">
         <v>318</v>
       </c>
-      <c r="D70" s="135" t="s">
+      <c r="E70" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70" s="135" t="s">
         <v>319</v>
       </c>
-      <c r="E70" s="135" t="s">
-        <v>293</v>
-      </c>
-      <c r="F70" s="135" t="s">
+      <c r="G70" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" s="135" t="s">
         <v>320</v>
       </c>
-      <c r="G70" s="135" t="s">
-        <v>295</v>
-      </c>
-      <c r="H70" s="135" t="s">
-        <v>321</v>
-      </c>
       <c r="I70" s="136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" ht="14.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="134">
         <v>1</v>
       </c>
       <c r="C71" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="63" t="s">
-        <v>299</v>
-      </c>
       <c r="E71" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F71" s="63">
         <v>10</v>
       </c>
       <c r="G71" s="63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I71" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" ht="14.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="134">
         <v>2</v>
       </c>
       <c r="C72" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D72" s="63" t="s">
-        <v>324</v>
-      </c>
       <c r="E72" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F72" s="63">
         <v>10</v>
       </c>
       <c r="G72" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="63" t="s">
-        <v>302</v>
-      </c>
       <c r="I72" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" ht="14.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="134">
         <v>3</v>
       </c>
       <c r="C73" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D73" s="63" t="s">
-        <v>324</v>
-      </c>
       <c r="E73" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F73" s="63">
         <v>200</v>
       </c>
       <c r="G73" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H73" s="63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I73" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" ht="14.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="134">
         <v>4</v>
       </c>
       <c r="C74" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D74" s="63" t="s">
-        <v>324</v>
-      </c>
       <c r="E74" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F74" s="63">
         <v>10</v>
       </c>
       <c r="G74" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H74" s="63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I74" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" ht="14.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="134">
         <v>5</v>
       </c>
       <c r="C75" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="D75" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="E75" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="H75" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="E75" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="G75" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="H75" s="63" t="s">
-        <v>325</v>
-      </c>
       <c r="I75" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="134">
         <v>6</v>
       </c>
       <c r="C76" s="137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D76" s="137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E76" s="137" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F76" s="137">
         <v>10</v>
       </c>
       <c r="G76" s="137" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H76" s="137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I76" s="139" t="s">
         <v>239</v>
@@ -10316,27 +10278,27 @@
       <c r="N76" s="117"/>
       <c r="O76" s="117"/>
     </row>
-    <row r="77" spans="2:15" ht="15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="134">
         <v>7</v>
       </c>
       <c r="C77" s="72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D77" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E77" s="72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F77" s="72">
         <v>200</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H77" s="72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I77" s="140" t="s">
         <v>239</v>
@@ -10344,53 +10306,51 @@
       <c r="N77" s="117"/>
       <c r="O77" s="117"/>
     </row>
-    <row r="78" spans="2:15" ht="15"/>
-    <row r="79" spans="2:15" ht="15"/>
-    <row r="80" spans="2:15" s="119" customFormat="1"/>
-    <row r="81" spans="2:14" s="119" customFormat="1"/>
-    <row r="82" spans="2:14" s="119" customFormat="1"/>
-    <row r="83" spans="2:14" s="119" customFormat="1"/>
-    <row r="84" spans="2:14" s="119" customFormat="1"/>
-    <row r="87" spans="2:14">
-      <c r="B87" s="287" t="s">
+    <row r="80" spans="2:15" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="2:14" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="2:14" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:14" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:14" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="287"/>
-      <c r="D87" s="287"/>
-    </row>
-    <row r="88" spans="2:14">
-      <c r="B88" s="289" t="s">
+      <c r="C87" s="291"/>
+      <c r="D87" s="291"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="293" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="293"/>
+      <c r="D88" s="293"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="309" t="s">
         <v>289</v>
       </c>
-      <c r="C88" s="289"/>
-      <c r="D88" s="289"/>
-    </row>
-    <row r="89" spans="2:14">
-      <c r="B89" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="C89" s="312"/>
-      <c r="D89" s="312"/>
-    </row>
-    <row r="90" spans="2:14">
-      <c r="B90" s="306" t="s">
-        <v>286</v>
-      </c>
-      <c r="C90" s="306"/>
-      <c r="D90" s="306"/>
-    </row>
-    <row r="93" spans="2:14" ht="15" thickBot="1"/>
-    <row r="94" spans="2:14" ht="27.6" thickBot="1">
-      <c r="B94" s="307" t="s">
+      <c r="C89" s="309"/>
+      <c r="D89" s="309"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="329" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="329"/>
+      <c r="D90" s="329"/>
+    </row>
+    <row r="93" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="308"/>
-      <c r="D94" s="309"/>
+      <c r="C94" s="325"/>
+      <c r="D94" s="326"/>
       <c r="F94" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G94" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="H94" s="54"/>
       <c r="I94" s="54"/>
@@ -10400,7 +10360,7 @@
       <c r="M94" s="54"/>
       <c r="N94" s="54"/>
     </row>
-    <row r="95" spans="2:14" ht="15" thickBot="1">
+    <row r="95" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="145" t="s">
         <v>110</v>
       </c>
@@ -10411,7 +10371,7 @@
         <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -10423,18 +10383,18 @@
       <c r="M95" s="54"/>
       <c r="N95" s="79"/>
     </row>
-    <row r="96" spans="2:14" ht="15" thickBot="1">
+    <row r="96" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C96" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="G96" s="2">
         <v>16</v>
@@ -10446,7 +10406,7 @@
       <c r="M96" s="79"/>
       <c r="N96" s="54"/>
     </row>
-    <row r="97" spans="2:14" ht="15" thickBot="1">
+    <row r="97" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="67"/>
       <c r="C97" s="57"/>
       <c r="D97" s="68"/>
@@ -10457,7 +10417,7 @@
       <c r="K97" s="54"/>
       <c r="M97" s="196"/>
     </row>
-    <row r="98" spans="2:14" ht="15" thickBot="1">
+    <row r="98" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="67"/>
       <c r="C98" s="57"/>
       <c r="D98" s="69"/>
@@ -10467,7 +10427,7 @@
       <c r="M98" s="196"/>
       <c r="N98" s="196"/>
     </row>
-    <row r="99" spans="2:14" ht="15" thickBot="1">
+    <row r="99" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="70"/>
       <c r="C99" s="63"/>
       <c r="D99" s="69"/>
@@ -10477,227 +10437,224 @@
       <c r="J99" s="54"/>
       <c r="K99" s="54"/>
     </row>
-    <row r="100" spans="2:14" ht="15" thickBot="1">
+    <row r="100" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="97"/>
       <c r="C100" s="98"/>
       <c r="D100" s="121"/>
       <c r="F100" s="7"/>
       <c r="G100" s="129"/>
     </row>
-    <row r="101" spans="2:14" ht="15" thickBot="1">
+    <row r="101" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="71"/>
       <c r="C101" s="72"/>
       <c r="D101" s="73"/>
     </row>
-    <row r="103" spans="2:14">
-      <c r="B103" s="288" t="s">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="288"/>
-    </row>
-    <row r="104" spans="2:14">
+      <c r="C103" s="292"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" ht="28.9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B105" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" ht="43.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="38" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" ht="15"/>
-    <row r="111" spans="2:14" ht="15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="142" t="s">
         <v>51</v>
       </c>
       <c r="C111" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" s="142" t="s">
         <v>343</v>
       </c>
-      <c r="D111" s="142" t="s">
-        <v>344</v>
-      </c>
       <c r="E111" s="136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" ht="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="4">
         <v>1</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="4">
         <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D113" s="4">
         <v>16</v>
       </c>
       <c r="E113" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="4">
         <v>3</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="4">
         <v>16</v>
       </c>
       <c r="E114" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="4">
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
       <c r="E115" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" ht="15"/>
-    <row r="117" spans="2:11" s="119" customFormat="1"/>
-    <row r="118" spans="2:11" s="119" customFormat="1"/>
-    <row r="119" spans="2:11" s="119" customFormat="1"/>
-    <row r="120" spans="2:11" s="119" customFormat="1"/>
-    <row r="121" spans="2:11" s="119" customFormat="1"/>
-    <row r="123" spans="2:11" ht="15">
-      <c r="C123" s="287" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C123" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="D123" s="287"/>
-      <c r="E123" s="287"/>
-    </row>
-    <row r="124" spans="2:11" ht="15">
-      <c r="C124" s="289" t="s">
+      <c r="D123" s="291"/>
+      <c r="E123" s="291"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C124" s="293" t="s">
+        <v>288</v>
+      </c>
+      <c r="D124" s="293"/>
+      <c r="E124" s="293"/>
+      <c r="G124" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="H124" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C125" s="309" t="s">
         <v>289</v>
       </c>
-      <c r="D124" s="289"/>
-      <c r="E124" s="289"/>
-      <c r="G124" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H124" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="I124" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" ht="15">
-      <c r="C125" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125" s="312"/>
-      <c r="E125" s="312"/>
+      <c r="D125" s="309"/>
+      <c r="E125" s="309"/>
       <c r="G125" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H125" s="62">
         <v>1</v>
       </c>
       <c r="I125" s="126" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" ht="14.25">
-      <c r="C126" s="312" t="s">
-        <v>286</v>
-      </c>
-      <c r="D126" s="312"/>
-      <c r="E126" s="312"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C126" s="309" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="309"/>
+      <c r="E126" s="309"/>
       <c r="G126" s="83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H126" s="76">
         <v>16</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" ht="15">
-      <c r="C127" s="314" t="s">
-        <v>288</v>
-      </c>
-      <c r="D127" s="315"/>
-      <c r="E127" s="316"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C127" s="320" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" s="321"/>
+      <c r="E127" s="322"/>
       <c r="G127" s="54"/>
       <c r="H127" s="54"/>
       <c r="I127" s="54"/>
       <c r="J127" s="54"/>
       <c r="K127" s="54"/>
     </row>
-    <row r="128" spans="2:11">
-      <c r="C128" s="317"/>
-      <c r="D128" s="317"/>
-      <c r="E128" s="317"/>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C128" s="323"/>
+      <c r="D128" s="323"/>
+      <c r="E128" s="323"/>
       <c r="G128" s="54"/>
       <c r="H128" s="54"/>
       <c r="I128" s="54"/>
       <c r="J128" s="54"/>
       <c r="K128" s="54"/>
     </row>
-    <row r="131" spans="3:12" ht="15"/>
-    <row r="132" spans="3:12" ht="15">
-      <c r="C132" s="313" t="s">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C132" s="319" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="313"/>
-      <c r="E132" s="313"/>
-    </row>
-    <row r="133" spans="3:12" ht="15">
+      <c r="D132" s="319"/>
+      <c r="E132" s="319"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C133" s="269" t="s">
         <v>110</v>
       </c>
@@ -10708,34 +10665,34 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="3:12" ht="15">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C134" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D134" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="D134" s="57" t="s">
+      <c r="E134" s="57" t="s">
         <v>355</v>
-      </c>
-      <c r="E134" s="57" t="s">
-        <v>356</v>
       </c>
       <c r="G134" s="142" t="s">
         <v>51</v>
       </c>
       <c r="H134" s="142"/>
       <c r="I134" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="J134" s="142" t="s">
         <v>343</v>
       </c>
-      <c r="J134" s="142" t="s">
-        <v>344</v>
-      </c>
       <c r="K134" s="142" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L134" s="136" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="3:12" ht="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C135" s="57"/>
       <c r="D135" s="57"/>
       <c r="E135" s="57"/>
@@ -10744,19 +10701,19 @@
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J135" s="4">
         <v>1</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L135" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="136" spans="3:12" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C136" s="54"/>
       <c r="D136" s="54"/>
       <c r="E136" s="79"/>
@@ -10765,82 +10722,79 @@
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J136" s="4">
         <v>16</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L136" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="3:12" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E137" s="79"/>
       <c r="G137" s="4">
         <v>3</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J137" s="4">
         <v>1</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L137" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="138" spans="3:12" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E138" s="79"/>
       <c r="G138" s="4">
         <v>4</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J138" s="4">
         <v>16</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L138" s="138" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="3:12" ht="15"/>
-    <row r="140" spans="3:12" ht="15"/>
-    <row r="141" spans="3:12" ht="15"/>
-    <row r="143" spans="3:12">
-      <c r="C143" s="288" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C143" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="288"/>
-    </row>
-    <row r="144" spans="3:12">
+      <c r="D143" s="292"/>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C144" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" ht="28.9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C145" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="43" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" ht="28.9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C146" s="38" t="s">
         <v>106</v>
       </c>
@@ -10848,71 +10802,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="28.9">
+    <row r="147" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C147" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C148" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" s="119" customFormat="1"/>
-    <row r="151" spans="2:11" s="119" customFormat="1"/>
-    <row r="152" spans="2:11" s="119" customFormat="1"/>
-    <row r="153" spans="2:11" s="119" customFormat="1"/>
-    <row r="154" spans="2:11" s="119" customFormat="1"/>
-    <row r="155" spans="2:11" ht="15" thickBot="1"/>
-    <row r="156" spans="2:11">
-      <c r="B156" s="291" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="2:11" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C156" s="292"/>
-    </row>
-    <row r="157" spans="2:11" ht="27.6" thickBot="1">
+      <c r="C156" s="296"/>
+    </row>
+    <row r="157" spans="2:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B157" s="210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C157" s="211" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15"/>
-    <row r="160" spans="2:11" ht="15">
-      <c r="B160" s="287" t="s">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C160" s="287"/>
-      <c r="D160" s="287"/>
+      <c r="C160" s="291"/>
+      <c r="D160" s="291"/>
       <c r="F160" s="171" t="s">
+        <v>360</v>
+      </c>
+      <c r="G160" s="172" t="s">
         <v>361</v>
       </c>
-      <c r="G160" s="172" t="s">
+      <c r="H160" s="239" t="s">
         <v>362</v>
       </c>
-      <c r="H160" s="239" t="s">
+      <c r="I160" s="171" t="s">
         <v>363</v>
       </c>
-      <c r="I160" s="171" t="s">
+      <c r="K160" s="173"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B161" s="293" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" s="293"/>
+      <c r="D161" s="293"/>
+      <c r="F161" s="167" t="s">
         <v>364</v>
-      </c>
-      <c r="K160" s="173"/>
-    </row>
-    <row r="161" spans="2:13" ht="15">
-      <c r="B161" s="289" t="s">
-        <v>289</v>
-      </c>
-      <c r="C161" s="289"/>
-      <c r="D161" s="289"/>
-      <c r="F161" s="167" t="s">
-        <v>365</v>
       </c>
       <c r="G161" s="168" t="s">
         <v>186</v>
@@ -10925,14 +10878,14 @@
       </c>
       <c r="K161" s="173"/>
     </row>
-    <row r="162" spans="2:13" ht="15">
-      <c r="B162" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="C162" s="312"/>
-      <c r="D162" s="312"/>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B162" s="309" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" s="309"/>
+      <c r="D162" s="309"/>
       <c r="F162" s="178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G162" s="195" t="s">
         <v>188</v>
@@ -10945,12 +10898,12 @@
       </c>
       <c r="K162" s="173"/>
     </row>
-    <row r="163" spans="2:13" ht="15">
-      <c r="B163" s="289" t="s">
-        <v>286</v>
-      </c>
-      <c r="C163" s="289"/>
-      <c r="D163" s="289"/>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B163" s="293" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="293"/>
+      <c r="D163" s="293"/>
       <c r="F163" s="173"/>
       <c r="G163" s="173"/>
       <c r="H163" s="173"/>
@@ -10959,55 +10912,55 @@
       <c r="K163" s="173"/>
       <c r="L163" s="173"/>
     </row>
-    <row r="164" spans="2:13">
-      <c r="B164" s="318" t="s">
-        <v>288</v>
-      </c>
-      <c r="C164" s="319"/>
-      <c r="D164" s="320"/>
-    </row>
-    <row r="165" spans="2:13">
-      <c r="B165" s="321" t="s">
-        <v>367</v>
-      </c>
-      <c r="C165" s="322"/>
-      <c r="D165" s="323"/>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167" s="288" t="s">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B164" s="310" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" s="311"/>
+      <c r="D164" s="312"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B165" s="316" t="s">
+        <v>366</v>
+      </c>
+      <c r="C165" s="317"/>
+      <c r="D165" s="318"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B167" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="288"/>
-    </row>
-    <row r="168" spans="2:13" ht="15">
+      <c r="C167" s="292"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="169" spans="2:13" ht="29.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B169" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C169" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F169" s="179" t="s">
         <v>236</v>
       </c>
       <c r="G169" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="H169" s="181" t="s">
         <v>361</v>
       </c>
-      <c r="H169" s="181" t="s">
+      <c r="I169" s="181" t="s">
         <v>362</v>
       </c>
-      <c r="I169" s="181" t="s">
+      <c r="J169" s="181" t="s">
         <v>363</v>
-      </c>
-      <c r="J169" s="181" t="s">
-        <v>364</v>
       </c>
       <c r="K169" s="182" t="s">
         <v>52</v>
@@ -11016,18 +10969,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="29.25">
+    <row r="170" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B170" s="38" t="s">
         <v>106</v>
       </c>
       <c r="C170" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F170" s="184">
         <v>1</v>
       </c>
       <c r="G170" s="194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H170" s="185" t="s">
         <v>186</v>
@@ -11039,24 +10992,24 @@
         <v>186</v>
       </c>
       <c r="K170" s="166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L170" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="43.5">
+    <row r="171" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B171" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F171" s="187">
         <v>2</v>
       </c>
       <c r="G171" s="188" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H171" s="189" t="s">
         <v>188</v>
@@ -11068,24 +11021,24 @@
         <v>186</v>
       </c>
       <c r="K171" s="166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L171" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="2:13" ht="27.75" customHeight="1">
+    <row r="172" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F172" s="187">
         <v>3</v>
       </c>
       <c r="G172" s="190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H172" s="191" t="s">
         <v>188</v>
@@ -11097,18 +11050,18 @@
         <v>188</v>
       </c>
       <c r="K172" s="166" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L172" s="216" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="2:13" ht="24">
+    <row r="173" spans="2:13" ht="27" x14ac:dyDescent="0.3">
       <c r="F173" s="201">
         <v>4</v>
       </c>
       <c r="G173" s="202" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H173" s="215" t="s">
         <v>186</v>
@@ -11120,23 +11073,23 @@
         <v>186</v>
       </c>
       <c r="K173" s="168" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L173" s="216" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="2:13" ht="24">
-      <c r="B174" s="293" t="s">
+    <row r="174" spans="2:13" ht="27" x14ac:dyDescent="0.3">
+      <c r="B174" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="C174" s="294"/>
-      <c r="D174" s="295"/>
+      <c r="C174" s="298"/>
+      <c r="D174" s="299"/>
       <c r="F174" s="203">
         <v>5</v>
       </c>
       <c r="G174" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H174" s="205" t="s">
         <v>188</v>
@@ -11148,13 +11101,13 @@
         <v>188</v>
       </c>
       <c r="K174" s="195" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L174" s="206" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="2:13" ht="15">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="165" t="s">
         <v>29</v>
       </c>
@@ -11173,15 +11126,15 @@
       <c r="L175" s="173"/>
       <c r="M175" s="173"/>
     </row>
-    <row r="176" spans="2:13" ht="15" thickBot="1">
+    <row r="176" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B176" s="167" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C176" s="168" t="s">
         <v>38</v>
       </c>
       <c r="D176" s="168" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F176" s="208"/>
       <c r="G176" s="173"/>
@@ -11192,9 +11145,9 @@
       <c r="L176" s="173"/>
       <c r="M176" s="173"/>
     </row>
-    <row r="177" spans="2:13" ht="15" thickBot="1">
+    <row r="177" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B177" s="169" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C177" s="169" t="s">
         <v>190</v>
@@ -11211,9 +11164,9 @@
       <c r="L177" s="173"/>
       <c r="M177" s="173"/>
     </row>
-    <row r="178" spans="2:13" ht="15" thickBot="1">
+    <row r="178" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C178" s="169" t="s">
         <v>190</v>
@@ -11230,9 +11183,9 @@
       <c r="L178" s="173"/>
       <c r="M178" s="173"/>
     </row>
-    <row r="179" spans="2:13" ht="15" thickBot="1">
+    <row r="179" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C179" s="169" t="s">
         <v>190</v>
@@ -11241,268 +11194,268 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="2:13" s="119" customFormat="1"/>
-    <row r="182" spans="2:13" s="119" customFormat="1"/>
-    <row r="183" spans="2:13" s="119" customFormat="1"/>
-    <row r="184" spans="2:13" s="119" customFormat="1"/>
-    <row r="185" spans="2:13" s="119" customFormat="1"/>
-    <row r="186" spans="2:13" ht="15" thickBot="1"/>
-    <row r="187" spans="2:13">
-      <c r="B187" s="291" t="s">
+    <row r="181" spans="2:13" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="2:13" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="2:13" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="2:13" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="2:13" s="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B187" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C187" s="292"/>
-    </row>
-    <row r="188" spans="2:13" ht="27.6" thickBot="1">
+      <c r="C187" s="296"/>
+    </row>
+    <row r="188" spans="2:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C188" s="211" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="15" thickBot="1"/>
-    <row r="190" spans="2:13" ht="15" thickBot="1">
-      <c r="B190" s="287" t="s">
+    <row r="189" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="190" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="C190" s="287"/>
-      <c r="D190" s="287"/>
+      <c r="C190" s="291"/>
+      <c r="D190" s="291"/>
       <c r="F190" s="171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G190" s="171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H190" s="241"/>
       <c r="I190" s="172" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="191" spans="2:13" ht="27.6" thickBot="1">
-      <c r="B191" s="289" t="s">
-        <v>289</v>
-      </c>
-      <c r="C191" s="289"/>
-      <c r="D191" s="289"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="293" t="s">
+        <v>288</v>
+      </c>
+      <c r="C191" s="293"/>
+      <c r="D191" s="293"/>
       <c r="F191" s="167" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G191" s="167" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H191" s="174"/>
       <c r="I191" s="168" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="309" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" s="309"/>
+      <c r="D192" s="309"/>
+      <c r="F192" s="178" t="s">
+        <v>283</v>
+      </c>
+      <c r="G192" s="178" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="192" spans="2:13" ht="27.6" thickBot="1">
-      <c r="B192" s="312" t="s">
-        <v>290</v>
-      </c>
-      <c r="C192" s="312"/>
-      <c r="D192" s="312"/>
-      <c r="F192" s="178" t="s">
-        <v>284</v>
-      </c>
-      <c r="G192" s="178" t="s">
-        <v>380</v>
       </c>
       <c r="H192" s="177"/>
       <c r="I192" s="195"/>
     </row>
-    <row r="193" spans="2:11">
-      <c r="B193" s="289" t="s">
-        <v>286</v>
-      </c>
-      <c r="C193" s="289"/>
-      <c r="D193" s="289"/>
-    </row>
-    <row r="194" spans="2:11">
-      <c r="B194" s="318" t="s">
-        <v>288</v>
-      </c>
-      <c r="C194" s="319"/>
-      <c r="D194" s="320"/>
-    </row>
-    <row r="195" spans="2:11">
-      <c r="B195" s="324" t="s">
-        <v>367</v>
-      </c>
-      <c r="C195" s="325"/>
-      <c r="D195" s="326"/>
-    </row>
-    <row r="196" spans="2:11">
-      <c r="B196" s="321" t="s">
-        <v>381</v>
-      </c>
-      <c r="C196" s="322"/>
-      <c r="D196" s="323"/>
-    </row>
-    <row r="198" spans="2:11" ht="15" thickBot="1">
-      <c r="B198" s="288" t="s">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B193" s="293" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193" s="293"/>
+      <c r="D193" s="293"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B194" s="310" t="s">
+        <v>287</v>
+      </c>
+      <c r="C194" s="311"/>
+      <c r="D194" s="312"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B195" s="313" t="s">
+        <v>366</v>
+      </c>
+      <c r="C195" s="314"/>
+      <c r="D195" s="315"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B196" s="316" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" s="317"/>
+      <c r="D196" s="318"/>
+    </row>
+    <row r="198" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B198" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C198" s="288"/>
-    </row>
-    <row r="199" spans="2:11" ht="15" thickBot="1">
+      <c r="C198" s="292"/>
+    </row>
+    <row r="199" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B199" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C199" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F199" s="179" t="s">
         <v>236</v>
       </c>
       <c r="G199" s="180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H199" s="180" t="s">
+        <v>382</v>
+      </c>
+      <c r="I199" s="223" t="s">
         <v>383</v>
-      </c>
-      <c r="I199" s="223" t="s">
-        <v>384</v>
       </c>
       <c r="J199" s="229" t="s">
         <v>52</v>
       </c>
       <c r="K199" s="224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" ht="29.45" thickBot="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B200" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F200" s="184">
         <v>1</v>
       </c>
       <c r="G200" s="194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H200" s="194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I200" s="213" t="s">
         <v>186</v>
       </c>
       <c r="J200" s="178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K200" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="2:11" ht="29.45" thickBot="1">
+    <row r="201" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="38" t="s">
         <v>106</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F201" s="201">
         <v>2</v>
       </c>
       <c r="G201" s="202" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H201" s="202" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I201" s="227" t="s">
         <v>188</v>
       </c>
       <c r="J201" s="225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K201" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="202" spans="2:11" ht="29.45" thickBot="1">
+    <row r="202" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B202" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F202" s="203">
         <v>3</v>
       </c>
       <c r="G202" s="217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H202" s="217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I202" s="232" t="s">
         <v>186</v>
       </c>
       <c r="J202" s="178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K202" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="2:11" ht="29.45" thickBot="1">
+    <row r="203" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B203" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C203" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F203" s="203">
         <v>4</v>
       </c>
       <c r="G203" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H203" s="217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I203" s="232" t="s">
         <v>188</v>
       </c>
       <c r="J203" s="178" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K203" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
+    <row r="204" spans="2:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F204" s="203">
         <v>5</v>
       </c>
       <c r="G204" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H204" s="217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I204" s="232" t="s">
         <v>186</v>
       </c>
       <c r="J204" s="178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K204" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="2:11" ht="15" thickBot="1">
-      <c r="B205" s="293" t="s">
+    <row r="205" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="C205" s="294"/>
-      <c r="D205" s="295"/>
-    </row>
-    <row r="206" spans="2:11" ht="15" thickBot="1">
+      <c r="C205" s="298"/>
+      <c r="D205" s="299"/>
+    </row>
+    <row r="206" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B206" s="167" t="s">
         <v>29</v>
       </c>
@@ -11513,31 +11466,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="2:11" ht="15" thickBot="1">
+    <row r="207" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B207" s="221" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C207" s="207" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" s="207" t="s">
         <v>280</v>
       </c>
-      <c r="D207" s="207" t="s">
+    </row>
+    <row r="208" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="178" t="s">
+        <v>376</v>
+      </c>
+      <c r="C208" s="195" t="s">
+        <v>279</v>
+      </c>
+      <c r="D208" s="195" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B209" s="236" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" ht="15" thickBot="1">
-      <c r="B208" s="178" t="s">
-        <v>377</v>
-      </c>
-      <c r="C208" s="195" t="s">
-        <v>280</v>
-      </c>
-      <c r="D208" s="195" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" ht="15" thickBot="1">
-      <c r="B209" s="236" t="s">
-        <v>282</v>
       </c>
       <c r="C209" s="237" t="s">
         <v>190</v>
@@ -11548,34 +11501,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B45:C45"/>
@@ -11588,11 +11518,34 @@
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B198:C198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11602,33 +11555,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA6F176-174A-4A0D-83CB-ECB33EEBDF31}">
   <dimension ref="B3:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C23" sqref="C23:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12"/>
-    <row r="4" spans="2:12">
-      <c r="B4" s="278" t="s">
+    <row r="3" spans="2:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
+      <c r="C4" s="283"/>
       <c r="F4" s="271" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G4" s="271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H4" s="173"/>
       <c r="I4" s="173"/>
@@ -11636,7 +11589,7 @@
       <c r="K4" s="173"/>
       <c r="L4" s="173"/>
     </row>
-    <row r="5" spans="2:12" ht="27.6" customHeight="1">
+    <row r="5" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -11644,82 +11597,82 @@
         <v>10</v>
       </c>
       <c r="F5" s="268" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="268" t="s">
         <v>392</v>
-      </c>
-      <c r="G5" s="268" t="s">
-        <v>393</v>
       </c>
       <c r="H5" s="173"/>
       <c r="J5" s="173"/>
       <c r="K5" s="173"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F6" s="57"/>
       <c r="G6" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H6" s="173"/>
       <c r="J6" s="173"/>
       <c r="K6" s="173"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H7" s="173"/>
       <c r="J7" s="270"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="220" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="J8" s="270"/>
       <c r="K8" s="270"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="54"/>
       <c r="H9" s="173"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="75"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="75"/>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="327" t="s">
+    <row r="12" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="331" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="328" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" s="329"/>
-      <c r="D13" s="330"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="317"/>
-    </row>
-    <row r="15" spans="2:12"/>
-    <row r="16" spans="2:12">
-      <c r="B16" s="311" t="s">
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+    </row>
+    <row r="13" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="332" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="333"/>
+      <c r="D13" s="334"/>
+    </row>
+    <row r="14" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="323"/>
+      <c r="C14" s="323"/>
+      <c r="D14" s="323"/>
+    </row>
+    <row r="15" spans="2:12" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="311"/>
-      <c r="D16" s="311"/>
-    </row>
-    <row r="17" spans="2:9" ht="24">
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+    </row>
+    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>110</v>
       </c>
@@ -11730,20 +11683,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="D18" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="24">
+    </row>
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>244</v>
@@ -11752,63 +11705,63 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="288" t="s">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="304"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="C22" s="308"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="332" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="43.5">
+      <c r="C23" s="279" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="333" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="43.5">
+      <c r="C24" s="280" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="333" t="s">
+      <c r="C25" s="280" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="29.25">
+    <row r="26" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="334" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="C26" s="281" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="332" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9"/>
-    <row r="29" spans="2:9"/>
-    <row r="30" spans="2:9">
+      <c r="C27" s="279" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="272" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="272" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D30" s="273" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E30" s="275" t="s">
         <v>21</v>
@@ -11820,101 +11773,101 @@
       <c r="H30" s="173"/>
       <c r="I30" s="173"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="63">
         <v>1</v>
       </c>
       <c r="C31" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="212" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" s="212" t="s">
         <v>397</v>
       </c>
-      <c r="D31" s="212" t="s">
-        <v>394</v>
-      </c>
-      <c r="E31" s="212" t="s">
-        <v>398</v>
-      </c>
-      <c r="F31" s="331" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="F31" s="278" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="63">
         <v>2</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D32" s="212" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32" s="212" t="s">
-        <v>399</v>
-      </c>
-      <c r="F32" s="331" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="15" customHeight="1">
+        <v>398</v>
+      </c>
+      <c r="F32" s="278" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="63">
         <v>3</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" s="212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E33" s="212" t="s">
-        <v>400</v>
-      </c>
-      <c r="F33" s="331" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="16.5" customHeight="1"/>
-    <row r="39" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="40" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="41" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="42" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="43" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="44" spans="2:18"/>
-    <row r="45" spans="2:18">
-      <c r="B45" s="291" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="278" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:18" s="119" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B45" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="292"/>
-    </row>
-    <row r="46" spans="2:18" ht="36">
+      <c r="C45" s="296"/>
+    </row>
+    <row r="46" spans="2:18" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B46" s="210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="288" t="s">
+      <c r="E46" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="288"/>
+      <c r="F46" s="292"/>
       <c r="I46" s="171" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J46" s="172" t="s">
         <v>223</v>
       </c>
       <c r="K46" s="172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M46" s="179" t="s">
         <v>236</v>
       </c>
       <c r="N46" s="180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O46" s="223" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P46" s="229" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q46" s="224" t="s">
         <v>52</v>
@@ -11923,27 +11876,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="48">
+    <row r="47" spans="2:18" ht="53.4" x14ac:dyDescent="0.3">
       <c r="E47" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I47" s="165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J47" s="166" t="s">
         <v>218</v>
       </c>
       <c r="K47" s="166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M47" s="184">
         <v>1</v>
       </c>
       <c r="N47" s="194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O47" s="213" t="s">
         <v>218</v>
@@ -11952,13 +11905,13 @@
         <v>97</v>
       </c>
       <c r="Q47" s="176" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R47" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="43.5">
+    <row r="48" spans="2:18" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B48" s="218" t="s">
         <v>24</v>
       </c>
@@ -11966,45 +11919,45 @@
         <v>15</v>
       </c>
       <c r="F48" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="I48" s="167" t="s">
         <v>407</v>
       </c>
-      <c r="I48" s="167" t="s">
+      <c r="J48" s="168" t="s">
         <v>408</v>
       </c>
-      <c r="J48" s="168" t="s">
+      <c r="K48" s="168" t="s">
         <v>409</v>
-      </c>
-      <c r="K48" s="168" t="s">
-        <v>410</v>
       </c>
       <c r="M48" s="187">
         <v>2</v>
       </c>
       <c r="N48" s="190" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O48" s="227" t="s">
         <v>218</v>
       </c>
       <c r="P48" s="225" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q48" s="176" t="s">
         <v>411</v>
-      </c>
-      <c r="Q48" s="176" t="s">
-        <v>412</v>
       </c>
       <c r="R48" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="36">
+    <row r="49" spans="2:18" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B49" s="219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>106</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I49" s="178" t="s">
         <v>97</v>
@@ -12017,30 +11970,30 @@
         <v>3</v>
       </c>
       <c r="N49" s="193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O49" s="230" t="s">
+        <v>413</v>
+      </c>
+      <c r="P49" s="221" t="s">
         <v>414</v>
       </c>
-      <c r="P49" s="221" t="s">
-        <v>415</v>
-      </c>
       <c r="Q49" s="176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R49" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="57.75">
+    <row r="50" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B50" s="221" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M50" s="184">
         <v>4</v>
@@ -12052,24 +12005,24 @@
         <v>218</v>
       </c>
       <c r="P50" s="221" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q50" s="176" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R50" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="36">
+    <row r="51" spans="2:18" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B51" s="116" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M51" s="187">
         <v>5</v>
@@ -12081,16 +12034,16 @@
         <v>218</v>
       </c>
       <c r="P51" s="178" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q51" s="176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R51" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="48">
+    <row r="52" spans="2:18" ht="53.4" x14ac:dyDescent="0.3">
       <c r="M52" s="187">
         <v>6</v>
       </c>
@@ -12098,26 +12051,26 @@
         <v>97</v>
       </c>
       <c r="O52" s="228" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P52" s="226" t="s">
         <v>97</v>
       </c>
       <c r="Q52" s="176" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R52" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
-      <c r="E53" s="293" t="s">
+    <row r="53" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E53" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="294"/>
-      <c r="G53" s="295"/>
-    </row>
-    <row r="54" spans="2:18">
+      <c r="F53" s="298"/>
+      <c r="G53" s="299"/>
+    </row>
+    <row r="54" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E54" s="165" t="s">
         <v>29</v>
       </c>
@@ -12128,9 +12081,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E55" s="167" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F55" s="168" t="s">
         <v>88</v>
@@ -12139,7 +12092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="61.5" customHeight="1">
+    <row r="56" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="222" t="s">
         <v>223</v>
       </c>
@@ -12147,12 +12100,12 @@
         <v>88</v>
       </c>
       <c r="G56" s="170" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E57" s="122" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="E57" s="122" t="s">
-        <v>423</v>
       </c>
       <c r="F57" s="116" t="s">
         <v>120</v>
@@ -12161,96 +12114,96 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="2:18"/>
-    <row r="60" spans="2:18" ht="36">
-      <c r="E60" s="288" t="s">
+    <row r="59" spans="2:18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:18" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E60" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="288"/>
+      <c r="F60" s="292"/>
       <c r="H60" s="171" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I60" s="172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M60" s="179" t="s">
         <v>236</v>
       </c>
       <c r="N60" s="180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O60" s="223" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P60" s="229" t="s">
         <v>52</v>
       </c>
       <c r="Q60" s="224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" ht="72">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="79.8" x14ac:dyDescent="0.3">
       <c r="E61" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="H61" s="167" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="168" t="s">
         <v>425</v>
-      </c>
-      <c r="H61" s="167" t="s">
-        <v>365</v>
-      </c>
-      <c r="I61" s="168" t="s">
-        <v>426</v>
       </c>
       <c r="M61" s="184">
         <v>1</v>
       </c>
       <c r="N61" s="194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O61" s="213" t="s">
         <v>186</v>
       </c>
       <c r="P61" s="178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q61" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="48">
+    <row r="62" spans="2:18" ht="53.4" x14ac:dyDescent="0.3">
       <c r="E62" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H62" s="178" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I62" s="195"/>
       <c r="M62" s="201">
         <v>2</v>
       </c>
       <c r="N62" s="202" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O62" s="227" t="s">
         <v>188</v>
       </c>
       <c r="P62" s="225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q62" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:18" ht="60">
+    <row r="63" spans="2:18" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="E63" s="38" t="s">
         <v>106</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H63" s="173"/>
       <c r="I63" s="173"/>
@@ -12258,24 +12211,24 @@
         <v>3</v>
       </c>
       <c r="N63" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O63" s="232" t="s">
         <v>186</v>
       </c>
       <c r="P63" s="178" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q63" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="2:18" ht="29.25">
+    <row r="64" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E64" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M64" s="208"/>
       <c r="N64" s="173"/>
@@ -12283,12 +12236,12 @@
       <c r="P64" s="173"/>
       <c r="Q64" s="173"/>
     </row>
-    <row r="65" spans="5:17" ht="29.25">
+    <row r="65" spans="5:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E65" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M65" s="208"/>
       <c r="N65" s="173"/>
@@ -12296,36 +12249,36 @@
       <c r="P65" s="173"/>
       <c r="Q65" s="173"/>
     </row>
-    <row r="66" spans="5:17">
+    <row r="66" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M66" s="208"/>
       <c r="N66" s="173"/>
       <c r="O66" s="173"/>
       <c r="P66" s="173"/>
       <c r="Q66" s="173"/>
     </row>
-    <row r="67" spans="5:17" ht="24">
-      <c r="E67" s="293" t="s">
+    <row r="67" spans="5:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="E67" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="294"/>
-      <c r="G67" s="295"/>
+      <c r="F67" s="298"/>
+      <c r="G67" s="299"/>
       <c r="I67" s="171" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L67" s="179" t="s">
         <v>236</v>
       </c>
       <c r="M67" s="180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N67" s="229" t="s">
         <v>52</v>
       </c>
       <c r="O67" s="224" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" spans="5:17" ht="48">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="5:17" ht="53.4" x14ac:dyDescent="0.3">
       <c r="E68" s="165" t="s">
         <v>29</v>
       </c>
@@ -12336,50 +12289,50 @@
         <v>31</v>
       </c>
       <c r="I68" s="167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L68" s="184">
         <v>1</v>
       </c>
       <c r="M68" s="194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N68" s="178" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O68" s="186" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="5:17" ht="48">
+    <row r="69" spans="5:17" ht="53.4" x14ac:dyDescent="0.3">
       <c r="E69" s="167" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F69" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="G69" s="168" t="s">
-        <v>281</v>
-      </c>
       <c r="I69" s="178" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L69" s="203">
         <v>2</v>
       </c>
       <c r="M69" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N69" s="178" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O69" s="192" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="5:17" ht="36">
+    <row r="70" spans="5:17" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="E70" s="233" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F70" s="234" t="s">
         <v>190</v>
@@ -12388,62 +12341,62 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="5:17"/>
-    <row r="72" spans="5:17">
-      <c r="E72" s="288" t="s">
+    <row r="71" spans="5:17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E72" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="288"/>
-    </row>
-    <row r="73" spans="5:17">
+      <c r="F72" s="292"/>
+    </row>
+    <row r="73" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E73" s="38" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="5:17" ht="29.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E74" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F74" s="43" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="75" spans="5:17" ht="29.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="5:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E75" s="38" t="s">
         <v>106</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="5:17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E76" s="38" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="77" spans="5:17">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E77" s="38" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="78" spans="5:17"/>
-    <row r="79" spans="5:17">
-      <c r="E79" s="293" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="5:17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E79" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="294"/>
-      <c r="G79" s="295"/>
-    </row>
-    <row r="80" spans="5:17">
+      <c r="F79" s="298"/>
+      <c r="G79" s="299"/>
+    </row>
+    <row r="80" spans="5:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E80" s="167" t="s">
         <v>29</v>
       </c>
@@ -12454,30 +12407,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="5:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E81" s="178" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F81" s="195" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G81" s="195" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E82" s="173"/>
       <c r="F82" s="173"/>
       <c r="G82" s="173"/>
     </row>
-    <row r="83" spans="5:7"/>
-    <row r="84" spans="5:7"/>
-    <row r="85" spans="5:7"/>
-    <row r="86" spans="5:7"/>
-    <row r="87" spans="5:7"/>
-    <row r="88" spans="5:7"/>
+    <row r="83" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="5:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="B22:C22"/>
@@ -12486,11 +12444,6 @@
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
